--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_64.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_64.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d235443-Reviews-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>216</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Best-Western-Plus-John-Jay-Inn-Suites.h596387.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_64.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_64.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="904">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>doehler33</t>
+  </si>
+  <si>
     <t>06/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Joel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r582100369-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>Clean, dated, comfy, noisy refrigerator &amp; air conditioner.  Didn't blow my socks off, but was a great price!  Perfect for a place to sleep, ok breakfast, instant coffee.  You can hear everything in the hallways</t>
   </si>
   <si>
+    <t>TJTR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r574732132-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>ALinCA5512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r558196871-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I travel often and normally stay at Marriot properties - Fairfield, Springhill Suites - are lower level Marriot properties and this hotel is horrible compared to those.I booked a suite.  The suite had a horribly dirty love seat.  The floor was not properly installed with gaps everywhere.On the plus side, it had a bedroom, sitting area and included a mini fridge, microwave.  Includes bath and toilet separate from the sink.I would not stay here again.More</t>
   </si>
   <si>
+    <t>careiris2020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r557947510-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Donald P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r548956788-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>K5769ZKjamesb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r547457202-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>C M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r546271812-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Bret B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r545411606-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>Needed a place to stay after a very long plane trip, and then the 6 hour drive back to Mammoth from LAX. Property worked ok for just a rest after the flight. Bed not really what BW offers in other "Plus" properties.  Food was ok, but the server came out to put eggs into the serving dish, and just plopped a "tupperware" dish of eggs into the serve tray, just not the best sight to see.</t>
   </si>
   <si>
+    <t>Betita60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r543276382-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Tom M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r541826776-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>Booking.com failed to send my reservatiin for another hotel for the week that sold out so I had to make other arrangements.  This was one of the few places with any rooms left.Lobby set the tone. Very dingey furniture that needs replacing.  They still use a manual card copier to record rhe transactiin. Had not seen one of rhose used in a decade. Room was all hardwood floors. Easy to clean but not comfortable.  Outlets by the bed were so worn out my phone chargers just fell out of them and would not work.  Breakfast was fake eggs and chemically flavored bacon.  Sheets on the bed were very threadbare and looked dingey. Should have been replaced some time ago.  The one positive thing I can say is that the staff was nice.   But this place would be a last choice given no other options.More</t>
   </si>
   <si>
+    <t>mikhailk317</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r541898079-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>I stayed at this hotel during a recent business trip.  A little outdated decor but solid value overall - quiet location, clean rooms, friendly staff.  Also includes free and surprisingly decent breakfast.</t>
   </si>
   <si>
+    <t>mrugendra g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r537549183-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Kerry L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r537022782-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>well we were tired and after the cancelled hotel at hotel.com we took a name for trust to stay here. the price was a little higher but we needed to shutdown for a few Hrs and this was it! The Guy at the front desk was kind and got us keys quickly as we prepaid thru Hotels.com and even skipped the incidentals which was great. room was clean and comfortable for us and my two children, Safe and well lit. had a gas fireplace but I think it just decorative and does not work anymore. got up for the breakfast and went downstairs and found something for everyone. Waffles are always a good sign and had coffee to wake up. thans and so long!More</t>
   </si>
   <si>
+    <t>759guadalupea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r535557617-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -438,6 +483,9 @@
     <t>We had a great stay.  Family of five in two queen size beds... 3 kids and parents... it was a calm place to turn in to after our hectic days.Breakfast had something for everyone. We enjoyed the make your own waffles bar and variety of drink choices.</t>
   </si>
   <si>
+    <t>Fernando P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r522141621-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -456,6 +504,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Robin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r520385381-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -477,6 +528,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>boa494</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r518164200-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -492,6 +546,9 @@
     <t>Rooms could have been cleaner. Hotel smelt musky. Upon checking in we were not told about breafast. People outside were working on their cars in parking lot. Therefore made it look like a shady place to stay.</t>
   </si>
   <si>
+    <t>ruthr940</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r508533309-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -507,6 +564,9 @@
     <t>Manager Roy andPatricia in reception plus the entire staff always make my frequent business stays enjoyable and uncomplicated. This hotel puts strong emphasis on great service! I highly recommend for both pleasure and business.</t>
   </si>
   <si>
+    <t>725jerryv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r508610572-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -522,6 +582,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Santiago R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r506534037-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -567,6 +630,9 @@
     <t>I am a traveling service technician, on the road over 250 days per year or more. I almost always stay at BW's. John Jay Inn &amp; Suites was a very pleasant place to stay. The staff are friendly wonderful people. The rooms are very comfortable. I slept very well in the bed. The rooms are very clean. I have high expectations from hotels because I basically live on the road. John Jay Inn &amp; Suites exceeded them all.More</t>
   </si>
   <si>
+    <t>RichRey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r498982960-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -582,6 +648,9 @@
     <t xml:space="preserve">Hands down, this has to be the nicest Best Western I've stayed at. Bed is just right, furnishing are nice and newer, decor is lovely. The lobby is pretty as well. The lady who checked me in was super polite and funny. I'll think I'll be staying here when in Palmdale. </t>
   </si>
   <si>
+    <t>C3691KPjohnj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r498441050-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -606,6 +675,9 @@
     <t>Comfortable and very clean rooms with great air conditioning. They have a decent continental breakfast with a few hot items and it is included in the rate which makes it nice. Nice pool area and very courteous staff.More</t>
   </si>
   <si>
+    <t>Tryna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r492342386-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -630,6 +702,9 @@
     <t>We needed a room for our sisters funeral and nieces birthday party. The staff was very nice and welcoming. The room was a standard room and we had a nice stay.  It had a small refrigerator and microwave for a quick snack and drink. More</t>
   </si>
   <si>
+    <t>Jessie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r483088247-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -657,6 +732,9 @@
     <t>the knobs in refrigerator didn't work. There was no freezer.  There was a stale smell and the pillow smelled like syrup so when I woke up in the morning I smelled like that. The AC went out and wouldn't work. The breakfast was decent yet the pastries and bagel was from days before, it wasn't  fresh. The breakfast attendant was very nice and friendly and helpful.More</t>
   </si>
   <si>
+    <t>Denise G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r480122457-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -684,6 +762,9 @@
     <t>The hotel was nice.  When we checked in the staff was friendly.  There is a hospital close by.  We found plenty of food options at a near by mall.  The walls seem a little thin, but that may mostly have been because a drunk guy was in the hall screaming right near our door.  Otherwise the place was fine.More</t>
   </si>
   <si>
+    <t>Carolyn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r472402796-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -699,6 +780,9 @@
     <t xml:space="preserve">I visit the hotel this past week end &amp; I was impressed,...the service was good..my room was good. I wish to keep receiving this service in the future when I travel. Which will be very soon. Thanks for the service </t>
   </si>
   <si>
+    <t>herpdoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r472257986-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -717,6 +801,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Kitters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r468687800-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -735,6 +822,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>victoriah185</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r462152280-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -753,6 +843,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Thomas R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r460745684-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -765,6 +858,9 @@
     <t xml:space="preserve">This was the cleanest hotel we have ever stayed in. We will definitely stay here again. We will recommend staying here to our friends. Restaurants, shopping, medical services are nearby. Centrally located. Priced right. </t>
   </si>
   <si>
+    <t>Bridget W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r457976745-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -783,6 +879,9 @@
     <t>My room was clean and spacious and the bed was comfortable. Microwave and mini fridge were convenient, except that the refrigerator made a strange moaning noise. I unplugged it at night so I could sleep. Otherwise, the room was quiet. Main annoyance was small breakfast room with TV blaring Fox news on the wall. I and another person asked the person at the front desk if the sound could be muted, but he refused. Aside from the fact that I vastly prefer peace and quiet in the morning to a blaring TV, why do hotel proprietors think it is appropriate to subject paying guests to their choice of political propaganda with our morning coffee?More</t>
   </si>
   <si>
+    <t>OldNatureLover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r450606547-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -798,6 +897,9 @@
     <t>You experience was very positive with one exception: no hot water for tea at breakfast.  Apparently the employees that was supposed to take care of this duty did not.  The clerk was annoyed with him but did not do anything to provide the guests with hot water.</t>
   </si>
   <si>
+    <t>maraeta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r445946026-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -813,6 +915,9 @@
     <t xml:space="preserve">Nice, clean room, comfy bed.  I especially liked the bare floors - a lot more sanitary than carpet.  Not a lot of amenities - only soap and one bottle of shampoo and one bottle of conditioner. Wi-Fi worked on my laptop but not on my smartphone even though it said it was connected.  Good breakfast; waffles, scrambled eggs, etc.  Too bad Fox News was on the TV in the breakfast room though.  Very nice young man at check in.  </t>
   </si>
   <si>
+    <t>Dave S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r443724246-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -834,6 +939,9 @@
     <t>I have stayed in Best Western properties throughout the southern California desert areas and have come to depend on consistent mid-level accommodations and attentive customer service.  This hotel did not disappoint.  Easy online booking and frequent promotions in addition to AARP rates for the 50+ set.  Front desk people were most helpful and arranged for a local taxi when I needed it.  The rooms have been recently updated with faux hardwood laminate flooring and modern furnishings.  The mini refrigerator, microwave and coffee maker are always appreciated.  The breakfast buffet was fine and included all the standard continental fare (breads, cereals, juices, yogurts) we well as ham and eggs.  I felt this Best Western was by far the best value for the money in the Palmdale area.More</t>
   </si>
   <si>
+    <t>Britni D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r427347057-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -850,6 +958,9 @@
   </si>
   <si>
     <t>August 2016</t>
+  </si>
+  <si>
+    <t>BV8888</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r425324630-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
@@ -881,6 +992,9 @@
 The free breakfast is very substantial - Continental offerings, hot eggs and Canadian bacon, hard boiled eggs, and the makings for waffles as well...I don't usually go to Palmdale. But I needed a place to stay midweek, and I like the Best Western for its comforting consistency. There were no bad reviews, so I figured it was a good midpoint stay for my travel. Well, it's a wonderful business travel hotel. The entrance off busy Palmdale Blvd. is a driveway that leads you to a quiet space in which to chill after all the small city's noise. I parked with ease right in front of the hotel lobby each and every time I left the hotel. The location is ideal. You can drive through a nearby commercial park and use the roundabout shortcut to the Antelope Valley Mall, its stores and restaurants, as well as all the other major stores such as Trader Joe's, Smart and Final, and Target. There is also what appears to be the last standing Barnes and Noble as well. The John Jay staff is very friendly and the property is very clean. I had a large, 2nd floor room facing the desert dune. A lovely contradiction to the freeway lights right behind it. The room key offers no trouble, and the lamps offer bright lighting. There are hard wood floors which is homey but your office chair does make noice rolling around on it.The free breakfast is very substantial - Continental offerings, hot eggs and Canadian bacon, hard boiled eggs, and the makings for waffles as well as cereal and breads. My only disagreement is with the loud, creaky elevator doors. It sounded like a Halloween scream each time the door opened and closed. This is easy to fix. On the other hand, the amplified Fox Channel in the breakfast room is not.If you want a basic, restorative, and safe place, this is it.More</t>
   </si>
   <si>
+    <t>Eileen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r417338115-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -899,6 +1013,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Bruce F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r410401901-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -923,6 +1040,9 @@
     <t>i wasnt told the would not make up the room. nor exchange used towels. the fridge didnt work after several trys the exchanged it. only one bar of soap for the two nights. breakfeast was fair at best i wouldbt eat the second day. and the pool was a shade of green and the jacuzzi was a mustard yellow alge. lack of management..More</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r406434061-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -938,6 +1058,9 @@
     <t>Small friendly Hotel in Palmdale. My favorite place to stay when travelling on business trips to this location. All the staff are really helpful and go out of their way to accommodate any special needs.</t>
   </si>
   <si>
+    <t>Lizbeth L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r397446191-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -956,6 +1079,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>wayned36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r385452424-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -974,6 +1100,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Larry J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r380643205-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -992,6 +1121,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Darren C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r376627659-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1007,6 +1139,9 @@
     <t>The hallways and doors seemed dated but clean. The room was nicely remodeled. Laminate flooring, modern bed setting( No bed spread), microwave, mini fridge. Rooms were clean. Good access to power outlets.</t>
   </si>
   <si>
+    <t>lkontis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r372708369-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1022,6 +1157,9 @@
     <t xml:space="preserve">The room was comfortable and clean, nicely decorated. I was surprised at how nice it was for the price. Overall a pleasant place to stay.  I was there for a week while commuting to work in Lancaster. Staff were courteous and efficient.  </t>
   </si>
   <si>
+    <t>Augustine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r372509743-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1037,6 +1175,9 @@
     <t>Very good place to stay for the price. Room was clean and comfy. Staff was very friendly. Short drive to grab a bite to eat or drink. Okay this is the end of my review but since this will not post unless I have at least 200 characters, which by the way is asinine, and why I usually do not fill these type of surveys out, I will just take typing. Not sure why a review just cannot be short and to the point. Whoever developed this page the following is my review of the "minimum 200 characters"...IT SUCKS!!! Hugs &amp; kisses.</t>
   </si>
   <si>
+    <t>afwife817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r371810717-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1058,6 +1199,9 @@
     <t>I can't say anything bad about the place. Maybe a little expensive, but that's just me. I don't have any real complaints. My key however didn't work a couple times using the side doors to the building. My room was at the end of the building, so the side door became easier to use for my three night stay. The day I was checking out and loading my car, I had to remind the front desk guy to unlock that side door. It was around 7:20AM, they unlock the door at 7:00AM, No big deal. I was on the 3rd floor which was nice, but it wreaked like pot. I'm guessing the room smelling up the hallway, didn't turn on the fan or burn any incense. As for the breakfast, it was good but I wouldn't say it was great. I like that the hotel is easy to find and right off the freeway, but it was $89 a night. Guess that's average isn't it. Would I stay here again, maybe!!More</t>
   </si>
   <si>
+    <t>Alfred K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r363237397-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1073,6 +1217,9 @@
     <t>The location of the hotel is a bit off the noisy freeway and close to the regional medical center. The staff is very friendly and the personnel apparently mostly has been with the hotel since a long time.  The place is undergoing modernisation which comes timely.</t>
   </si>
   <si>
+    <t>Linnea A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r357730777-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1091,6 +1238,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Donna J Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r356464085-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1106,6 +1256,9 @@
     <t>We requested a room on the first floor or close to the elevator and was originally placed almost to the end of the hall away from the elevator. Complained and by some reason there was found a room as we had request to only to find out around 10PM the stool was about to overflow and we were moved almost across the hall.</t>
   </si>
   <si>
+    <t>SilverbackScotland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r336306128-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1124,6 +1277,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Darla R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r336211161-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1136,6 +1292,9 @@
     <t>Very close to hospital where we visited 'inmate'.  The breakfast was blah, you could make pancake or waffle, good sausage, horrible omlet that was present every day of our 3 day stay.  Bed was VERY comfortable as were pillows.  It had a microwave and refidgerator.  The decor in the room was very nice.</t>
   </si>
   <si>
+    <t>Eulalia_3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r335659555-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1154,6 +1313,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Twinshadie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r326718533-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1169,6 +1331,9 @@
     <t>The place was clean, the staff were friendly, and the grounds were nice.  The breakfaxt was good for us.  Hubby loves the waffles, I like a bagel, fruit, and yogurt!  I would recommend this hotel to anyone.</t>
   </si>
   <si>
+    <t>Ennyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r325267747-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1202,6 +1367,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>G. G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r313195261-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1220,6 +1388,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Susan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r312854658-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1235,6 +1406,9 @@
     <t xml:space="preserve">The staff was nice enough, however to my disgust just when I had unpacked and decided to lay down I pulled back the sheets and saw dried blood stains.... they apologized and gave me another room to which the tv remote dud not work. Would have rather ed stayed at the Hilton Garden Inn forc $7 more. Will not be visiting again. </t>
   </si>
   <si>
+    <t>lusciouslee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r308731118-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1250,6 +1424,9 @@
     <t>The rooms are clean and tastefully decorated with microwaves and mid-sized refrigerators.  Although it is no frills hotel, our room had a mock fireplace which added to the ambiance, the beds were comfortable and made for an overall pleasant experience.  The staff could be a little more accommodating especially in terms of providing items like extra towels and information about the area.  The business and fitness centers are very modest and there is a laundry room that is reasonably priced.  There is also a small pool and jacuzzi.  Overall, it was a pleasant experience.</t>
   </si>
   <si>
+    <t>jlangs22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r293720970-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1268,6 +1445,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Taiwo B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r293198861-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1283,6 +1463,9 @@
     <t>It was well located and ok for the price paid, All the amenities were clean and in good working condition. The staff were friendly and well mannered. We stayed for 3 night and never encountered a problem. The environment was well lighted at night.</t>
   </si>
   <si>
+    <t>Sharon Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r290605667-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1298,6 +1481,9 @@
     <t>We were disappointed that the jacuzzi was broken our entire stay; very clean and comfortable rooms; best employees I've ever encountered; continental breakfast was better than most since there were eggs and waffles.</t>
   </si>
   <si>
+    <t>John E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r285338841-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1316,6 +1502,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Paulette T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r284090820-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1331,6 +1520,9 @@
     <t>Hotel was close to restaurants and freeway access. I would recommend.  The hotel was easy to find.  We were greeted upon entry to the hotel.  We have stayed at a few Best Western's lately and this one was one of the top.</t>
   </si>
   <si>
+    <t>Amy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r281283417-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1346,6 +1538,9 @@
     <t>This hotel was convenient to the freeway.  It was clean and the staff was friendly.  The beds were comfortable and the breakfast had many choices and was delicious.  My children enjoyed the pool and hot tub.  I would stay here again.</t>
   </si>
   <si>
+    <t>Elaine H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r272548673-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1364,6 +1559,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Michael D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r271849992-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1376,6 +1574,9 @@
     <t>We selected a 1 bed room suite on the first floor. Very nice ,clean and comfortable. Staff was friendly and attentive. The breakfast was hot and ample. Easy on and off the highway and there were many places to eat nearby. Room service is also available although we did not use it.Wifi was strong and free as was the breakfast. Ample handicap parking near the door.</t>
   </si>
   <si>
+    <t>Steve C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r267255249-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1391,6 +1592,9 @@
     <t>We had a very nice stay here, Very clean and comfortable. We were on the third floor and parallel with the top of a palm tree. Very enjoyable for me to sit and watch the wind whip through that palm. Yes there is a hospital next door. and yes you can hear the ambulance's but we slept with the window open and only heard one siren overnight. Ice machine was out on our floor, but central elevator took me right to another. Breakfast was a disappointment. Eggs are needed for it to be a real breakfast.  We would definitely return if we are ever back this way.</t>
   </si>
   <si>
+    <t>Larry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r261577180-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1409,6 +1613,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Lance S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r260989134-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1424,6 +1631,9 @@
     <t>The John Jay Inn is located right next to the Palmdale Regional Medical Center. Their rooms are always clean, well maintained and most important the staff understands that people using the hotel while undergoing treatment at the RMC can so often have an uncertain schedule. They consistently provide the best customer service and understanding for patrons and have always been able to accommodate the rapid changes that so often happen when dealing with the issues that arise when dealing with the hospital. Highly recommended for anyone who needs lodging in the Palmdale area.</t>
   </si>
   <si>
+    <t>Pomarinus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r260842550-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1436,6 +1646,9 @@
     <t>A decent hotel, providing two good night’s sleep. It was very busy and the water sold out from the vending machine, but otherwise no problem and I would definitely return. Ample, easy to access parking space and quick reception service. A standard continental breakfast was included, identical to that of many other hotels I stayed in. They did not provide a laundry service but offered use of guest washing machines.</t>
   </si>
   <si>
+    <t>Gerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r257187870-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1454,6 +1667,9 @@
     <t>Had booked for three days, because our motorhome needed servicing. We were able to get it fixed one day sooner. I was at the front desk about noon, and told the desk clerk. Figured she would give it due process. Later when talking to hotels.com, Best Western says they will not refund the one day early check out. I think that's very bad company policy. We have stayed in Best Westerns dozens of times and have always had a good experience. This one time will taint the chain for a long time. I know I was an hour late in telling them we were leaving, however, they could make an exception. The hotel was otherwise a good experience and I liked it. One item that could make it better would be take care of the exercise equipment and the sauna. They were worn  out and the sauna was not very clean.More</t>
   </si>
   <si>
+    <t>moushka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r262851038-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1473,6 +1689,9 @@
   </si>
   <si>
     <t>We commute regularly between the United States and Canada as snowbirds and elected to stay at the Best Western Plus in Palmdale as we have always enjoyed the quality of these fine properties.  We travel with our very well behaved dog and having a clean and beautiful hotel is important to us.  This stay was a major disappointment owing to odor issues with the room.  .  If you are travelling with your pet, and even if you are not , check the room before you check in - we had a serious problem with the odor in the room and could not determine if the heavy scent was to mask the smell of pets, smoke, or other problems perhaps.  We have an issue with allergies and were advised no other rooms were available - the hotel was 100% booked - a refund was offered which was not helpful at that time of day, when travelling with a larger dog. We have stayed previously at Oxford Inn at Lancaster and been satisfied with the stays when travelling with our pet and will return to that location for future stays.  The Oxford Suites at Lancaster  have been no issues with the rooms, they offer  evening hors d'oeuvres on week nights and are very definitely pet friendly.More</t>
+  </si>
+  <si>
+    <t>starshine90</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r256818333-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
@@ -1503,6 +1722,9 @@
 Otherwise, everything about this hotel was great and if you have...I want to make special mention of Abraham, who was especially helpful to me. I use a walker so he was able to check me in early with a specialized room. All rooms are non-smoking so there is no odor of smoke in the air. He also showed me how the debit card thingie on the coke machine worked and he even hung up my jackets for me! The room itself was clean. It has a comfortable couch and a large work area with computer plug-ins. (I do not own a laptop but I thought this information may be helpful for those who do.)As far as other meals, there is an IHOP about two long blocks away and an AM/PM store a block away and then there is always the hospital cafeteria; surprisingly good food for a hospital.There are also two computers in the large breakfast room which guests may use for free. If nobody is waiting, they are lax on the time limits.There is a free semi-continental breakfast in the morning. They do have hot waffles. I was a bit surprised it was semi-continental. The Best Western- Mojave has a free hot breakfast buffet and the rates are about the same. Oh, well--just a very minor complaint. But because of that, even with the hospital discount, I am not giving the value a perfect score.Otherwise, everything about this hotel was great and if you have business at the hospital next door, they offer special hospital rates.More</t>
   </si>
   <si>
+    <t>ndser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r253404570-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1524,6 +1746,9 @@
     <t>We stayed at the Best Western Plus John Jay Inn and Suites in Palmdale for 1-night in late Jan ($72). Palmdale is conveniently located for a first night stop on a winter's trip north from Phoenix that includes 2-3 hours in Joshua Tree National Park. Palmdale itself is relatively large and spread out across the desert; its frequent vacant buildings do not make it an attractive place to explore en route.The hotel is located just off I-14 in a suburban area. It has a small exercise area and sauna, and a small outdoor pool and jacuzzi that is unfortunately located at the front of the hotel beside the 4-lane highway. There is a supermarket 3-blocks to the right, and a local diner a block to the left.Our room was typical for a Best Western Plus, spacious with a king bed, desk, table and chair, large flat-screen TV, mini-fridge and microwave. The sink and vanity were in the room, with a utilitarian bathroom to the side.  The continental breakfast provided the standard items, and included an egg muffin that needed to be heated in the microwave, giving it the consistency of foam rubber.In summary, you get what you expect from a Best Western at the John Jay - there just isn't anything about the hotel or in the local area to make a visit special.More</t>
   </si>
   <si>
+    <t>BurtLou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r253404165-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1536,6 +1761,9 @@
     <t>Two night stay was full of things that would certainly lead me to recommend this motel!  The front desk staff were very helpful, friendly and went out of their way to accommodate our family group.  The cleaning personnel were helpful, friendly and smiling.  The location is "easy on and/off the freeway and walking distance to restaurants and supermarkets.</t>
   </si>
   <si>
+    <t>Karen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r252991313-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1551,6 +1779,9 @@
     <t>I always enjoy my stay at this property.  I'm here 4 times per year.  The staff is helpful, and know who I am when I call to make a reservation.  This is a good value.  I get a good night's rest here.  I highly recommend this property, particularly if access to the hospital is necessary.  It's virtually right next door.</t>
   </si>
   <si>
+    <t>Denise R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r251734773-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1566,6 +1797,9 @@
     <t>Good place to stay, Value is priced good for hotel and area. Family in town for funeral. 4 rooms all together on same floor. Very accommodating and friendly staff. Late for breakfast, not much of anything left by 8am.</t>
   </si>
   <si>
+    <t>hockeye44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r243941778-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1584,6 +1818,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Tracy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r240557700-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1602,6 +1839,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Rebecca D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r236111879-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1624,6 +1864,9 @@
   </si>
   <si>
     <t>Arrived for a one night stay for business.  Front desk clerk was not organized. I initially was on the first floor next to the public restroom and i declined the room.  They accommodated my request and moved me to a king room on the third floor.  Elevator certification was expired.  The room is not nice like other BW Plus hotels.  Old linens and stained rust colored carpet.  TV was flat screen and was approximately 42 inches.  I would have preferred the Holiday Inn but my room was booked and paid for by someone else.More</t>
+  </si>
+  <si>
+    <t>Sargewolf</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r231577984-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
@@ -1649,6 +1892,9 @@
 After all this my wife mentioned the problems to the clerk when we were leaving and they gave us a...The appearance both inside and out was nice. Abraham, the desk clerk when we checked in friendly and helpful. Other than that, I wouldn't stay there again. It took 3 or 4 tries to get a working tv remote. The guide in the guest book did not match the channels. The bathroom smelled foul, had to go to a local grocery store to get some air freshener. The refrigerator not only hummed, it made sucking/blowing noises that were so bad I had to get up and unplug it just to TRY to get to sleep. The checkout clerk said all the refrigerators were noisy. They put us in a room right across from the ice machine in the hall. Starting at around 6 am every few minutes someone was getting ice. Also the elevator was right there. People coming and going, laughing talking loud.  Don't get a room with 15 or 17 in the number. Over all not a good night's sleep at all after an 8 hour drive and a 10+ hour day ahead of us. I stay at Best Western most of the time and the breakfast was one of the most lame I've seen (Best Western Henderson,NV, one of the best breakfasts). My wife said the boiled eggs did not look fresh. We had breakfast else where.After all this my wife mentioned the problems to the clerk when we were leaving and they gave us a $12 refund. I will continue to stay at Best Western hotels,  just not this one.More</t>
   </si>
   <si>
+    <t>Kimmero</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r229605974-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1664,6 +1910,9 @@
     <t>Was convenient for our needs and comfortable and clean.  The TV remote wasn't the best but it worked.  Nice pool and hot tub for relaxing after a long day.  It was super hot in the breakfast room so we opted not to eat there.</t>
   </si>
   <si>
+    <t>Born_Old</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r220576785-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1682,6 +1931,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Jonas R S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r218805085-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1700,6 +1952,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Treasure D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r218145416-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1724,6 +1979,9 @@
     <t>Young staff who didn't take care of issue (after reporting twice)of same guest urinating at poolside on both nights stayed (second night had friends who also urinated at poolside); therefore we were unable to take our kids swimming (think she personally knew the guest). No extra towels available.. Couple rooms could smell cigarette smoke at we walked by (although this was non-smoking hotel) and had to change rooms as first room smelled heavy of smoke. Did have huge king suite room (if taking kids) which was perfect, but I'd prefer to spent a little extra even in smaller room for better surrounding/service.More</t>
   </si>
   <si>
+    <t>Walter M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r211442600-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1742,6 +2000,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Philip B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r210677311-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1757,6 +2018,9 @@
     <t>This was a very nice stay. The hotel was clean. Breakfast was great. I would syggest a better quality plasticware sine the cheap plasticware makes it difficult to cut the waffles as well as spread cream cheese. I would recommend this as well as most Best Western hotels to anyone traveling especially with the quality breakfast availble.</t>
   </si>
   <si>
+    <t>Robert J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r208447477-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1775,6 +2039,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Mario S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r206128376-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1790,6 +2057,9 @@
     <t>For the price this hotel is a good deal.  The rooms are clean the location is great.  The down side is the breakfast is out of a box and the staff speak mostly Spanish making it difficult to communicate.</t>
   </si>
   <si>
+    <t>3x108traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r203801267-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1823,6 +2093,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Celina L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r196820397-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1865,6 +2138,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Thomas B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r193694313-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1880,6 +2156,9 @@
     <t>Typical stay with Best Western Plus,  friendly staff during any encounter.  Room was clean, with everything you could need.   Breakfast was the usual mix of hot and cold offerings with nothing great but nothing terrible either.</t>
   </si>
   <si>
+    <t>Peter W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r191664999-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1898,6 +2177,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Graham B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r191396444-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1913,6 +2195,9 @@
     <t>I was happy with the check in. My room was clean and comfortable.When I got up the next morning,I went to breakfast and WOW ...I thoght I was at a Days Inn or something. What a sorry excuse for a breakfast!! Hard boiled eggs and frozen breakfast burritos (which were awful) are you serious??? I stay at BW frequently and this is the worst ever!!! Then I tried to check out after that and had to wait because front desk guy disappeared for over 20 minutes.</t>
   </si>
   <si>
+    <t>smokey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r190106460-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1928,6 +2213,9 @@
     <t>From the time of our arrival until we checked the entire staff were 100% committed to making sure all our needs were met. They were all very friendly and you could tell by how they acted and the cleanliness of the Hotel that they really cared about what they do. We are planning additional trips to Palmdale and will not stay in any other hotel there.</t>
   </si>
   <si>
+    <t>SpiralDive9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r186075533-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1949,6 +2237,9 @@
     <t>On the surface, this hotel has a lot going for it.  Good location with no traffic noise, small and cozy, well designed rooms with comfortable bedding, and a good exercise room.  Unfortunately, their attention to detail was lacking and I found myself being constantly irritated during my stay.  First and foremost, despite "No pets allowed" advertised on their website, there were numerous dogs in the place, including some large ones.  And no, these were not service dogs.  The internet service was intermitttently unavailable, and I was not advised how to access it upon check-in as is normally the case at other hotels.  Regarding the room, there were a number of problems: pizza box stuffed behind the pullout sofa (and after I placed it outside my door, it was not removed for over 12 hours); the sofa and one of the chairs were stained and looked like they had been picked up at a garage sale; lights were not plugged in when I arrived and I had to move furniture around to plug them in;  there was a large gouge on the toilet seat (and it was unbelievable they had not bothered to replace it considering they cost about ten bucks); knobs were missing from a couple of drawers.  These are all relatively minor problems that could easily be corrected, but it was pretty clear that such things are not a priority for the housekeeping and maintenance crews, so I can...On the surface, this hotel has a lot going for it.  Good location with no traffic noise, small and cozy, well designed rooms with comfortable bedding, and a good exercise room.  Unfortunately, their attention to detail was lacking and I found myself being constantly irritated during my stay.  First and foremost, despite "No pets allowed" advertised on their website, there were numerous dogs in the place, including some large ones.  And no, these were not service dogs.  The internet service was intermitttently unavailable, and I was not advised how to access it upon check-in as is normally the case at other hotels.  Regarding the room, there were a number of problems: pizza box stuffed behind the pullout sofa (and after I placed it outside my door, it was not removed for over 12 hours); the sofa and one of the chairs were stained and looked like they had been picked up at a garage sale; lights were not plugged in when I arrived and I had to move furniture around to plug them in;  there was a large gouge on the toilet seat (and it was unbelievable they had not bothered to replace it considering they cost about ten bucks); knobs were missing from a couple of drawers.  These are all relatively minor problems that could easily be corrected, but it was pretty clear that such things are not a priority for the housekeeping and maintenance crews, so I can only conlude that the place is poorly managed.More</t>
   </si>
   <si>
+    <t>Dee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r184442230-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1964,6 +2255,9 @@
     <t>We found this hotel to be noisy. The staff was very good overall, although after we had complained about 3 different problems, we felt awkard/uncomfortable the duration of our stay. Because of the above, we would not stay here. If all you are looking for is a quick stop place where you can do some on-line business, eat out, quick sleep - ask for top floor.</t>
   </si>
   <si>
+    <t>Doug R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r179777291-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -1982,6 +2276,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>paperson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r173276343-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2003,6 +2300,9 @@
     <t>I had a King non smoking room.  It was roomy and the bed was comfortable.  The only thing that dings down the rating to 3 stars is the pool.  Now if you're spending time at the pool in a Palmdale hotel, then you're not really there for the ambiance.  In August, I found the pool to be cold.  That's good.  What I found fault with was that the hot tub wasn't hot.  It wasn't even lukewarm.  It was cool.  That's not good.  The jet bubbles were fine.  But no heat.  Interestingly enough, the lobby and the breakfast room were hot, late in the afternoon.  For the price and the lack of attention to this one detail, I can't give it more than a three.More</t>
   </si>
   <si>
+    <t>Kathleen G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r172460104-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2018,6 +2318,9 @@
     <t>We could not afford to stay at the Best Western-Goleta so we stayed at the Super 8 at the corner of Fairview and Hollister. It was very nice, but wish we could stay at a Best Western when we visit family in Santa Barbara.</t>
   </si>
   <si>
+    <t>Jennifer C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r171135434-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2036,6 +2339,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>MDSteven</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r167877558-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2051,6 +2357,9 @@
     <t>Hotel is modest. Lacked in some of the detailed housekeeping. Breakfast was ho hum, lacking newer fare of some king of hot items, ie: eggs, meat. Room was comfortable and updated. Bed was very comfortable.</t>
   </si>
   <si>
+    <t>konalizza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r161543753-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2069,6 +2378,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>MrLorin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r158564328-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2090,6 +2402,9 @@
     <t>My girlfriend and I checked in at the Best Western Plus John Jay Inn and Suites at around 6:00 p.m.  It only took about two minutes to get the keys to our room, which had a king bed.  The bed was comfortable, and the room was clean.  There was no smell of tobacco smoke.  (We were in room 203.)  All staff encountered during our stay were friendly and courteous.  The fitness center had a True treadmill, and other basic equipment.  The hotel's washer and dryer were located in the fitness room, so it was somewhat noisy when people's clothes were being laundered.  The parking lot got full by 10:00 p.m., but we did stay on a Saturday evening.  The free breakfast in the morning was okay.  The check out only took a little over a minute.  We will be staying here again at this Best Western when in the Palmdale area.More</t>
   </si>
   <si>
+    <t>Dennis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r154675702-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2108,6 +2423,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>AKSandy386</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r150446031-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2126,6 +2444,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>SCOTT S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r147598831-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2144,6 +2465,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Heidi V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r142601041-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2171,6 +2495,9 @@
     <t>I stayed at this hotel by chance and I am so glad I did. I live in Palmdale and I still go there just to relax. Wonderful staff, I love the jaccuzi in the room, very quiet. I am going there for my birthday just to relax. I highly recommend it.More</t>
   </si>
   <si>
+    <t>mmppwwzz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r140103313-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2189,6 +2516,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Rick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r135378294-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2207,6 +2537,9 @@
     <t>Another good enough business hotel.  Clean bed, mini-fridge clean shower, etc...  In room Internet was wired only but my 1st floor room next to the lobby could pickup the lobby wifi well enough.  Important to know though you might need to bring a small wifi router though if you want to work anywhere but at the desk in the room.  The mirror on the bathroom door leads to staring at yourself while 'sitting and thinking', but for a solo business traveler it's not a big deal since you just leave the door open.  Nothing really in walking distance, but nothing's far away either.  If I were going to Palmdale with the family, doubt I'd stay here (than again...why would I take a family vacation in Palmdale?) but it worked well for a short business trip.More</t>
   </si>
   <si>
+    <t>pcthikes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r129114495-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2225,6 +2558,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Leon1958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r128199693-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2240,6 +2576,9 @@
     <t>I had never been there before, used my "BW Rewards Points" for a free night, the facility was very well laid-out, and provided another "GOOD" breakfast to start my work days away from home.</t>
   </si>
   <si>
+    <t>Jmom2many</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r128181428-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2255,6 +2594,9 @@
     <t>This is a fairly new motel so it is very nice. The staff is friendly and helpful.The only issue would be hallway noise and doors shutting. It would be nice if the walls and doors were a bit thicker but it would also be nice if people were considerate of others. This was our second stay at this motel. On the first someone had commented that this was the coldest pool they had ever felt that was certainly still true. It might be fine in the summer when temps are 100 plus but it would be nice if they would heat it in the fall, spring and winter, so it could be enjoyed. The spa is nice although it too could be a bit warmer. The breakfast was the usual fair kept well stocked. All in all it's a fine place to spend the night and less expensive than the other place in the area.More</t>
   </si>
   <si>
+    <t>txn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r117569313-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2276,6 +2618,9 @@
     <t>I arrived at around 2:00 p.m. on 8/24 and was quickly checked in to a 3rd floor king room.  I was very impressed with the room - with Best Western, sometimes it can be hit or miss - but this was a very nice room.  The bed was very comfortable.  It was very hot outside and the air conditioner kept the room nice and cool.  I needed to print some emails and was able to use the computer located in the "business center" which was basically a computer, printer, desk and chair, but hey, that's all I needed.  The hotel is located just about a mile from the main highway and is fairly close to a mall and several restaurants and is just across the street from the hospital.  The breakfast was fine - there were waffles and the usual bagels, English muffins, toast, fruit, cereal, although no yogurt.  If I were ever to return to the Palmdale or Lancaster area I would stay here again.  I paid about $80 and made my reservation directly with the Best Western website.More</t>
   </si>
   <si>
+    <t>BTOWN72008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r115986209-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2297,6 +2642,9 @@
     <t>We were in Lancaster in July for a Softball tournament. We stayed with our whole team at the Best Western. The location was very close to the freeway, shops, dinning &amp; hospital. The staff was very friendly &amp; helpful prior, durning &amp; after our stay. The breakfast was very good with make your own waffles. Which the kids loved. The hotel itself was very clean , the rooms were updated.The beds comfortable.All of the rooms had a microwave &amp; fridges. They could invest in better towels, but that didn't really change my opinion of this Hotel. The grounds were very well kept up &amp; had good lighting in the parking lot. I will stay here  again.More</t>
   </si>
   <si>
+    <t>Butterkupp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r115861439-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2315,6 +2663,9 @@
     <t>My husband is working out of town on a construction job so I decided to join him one night to celebrate my birthday.  The staff was very friendly and helpful.  I had forgotten my coupon for a local restaurant and the hotel provided a computer and printer for me (and all other guests) to use at no charge.  The hotel also provides free internet connections in the rooms.I had reserved a King Suite on the 3rd (top) floor and that’s what I got.  No hassle, no excuses.  The room was clean and well appointed.My only criticism is that they really need to change the sofa in the living area.  It is VERY old and not in keeping with the standards of the rest of the room and hotel.Breakfast was OK.  They advertise a continental breakfast and that’s what they provide.  No frills, but fine.Overall we enjoyed our stay and I would recommend the hotel.More</t>
   </si>
   <si>
+    <t>Westerleigh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r37960897-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2333,6 +2684,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>Treeless</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r30859867-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2351,6 +2705,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>Danhedonia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r20128843-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
   </si>
   <si>
@@ -2370,6 +2727,9 @@
   </si>
   <si>
     <t>Booked through Egencia (Expedia Corporate portal) for $109/night.What a terrific experience; the John Jay / Best Western Palmdale is what all midline properties should be: reasonably priced, well staffed, convenient, clean and comfortable.Arrived near midnight after lengthy travel, and was politely greeted by front desk.  Great room: spacious living room, excellent appliances, large and comfortable bed.  *** Internet connectivity was simple, and connection speed was sufficient for VPN.Nothing too fancy, but all the signs that someone cares: extra bar of soap; good housekeeping; a few inexpensive decorations. Parking was adequate, it is located near the highway, and staff were unfailingly helpful and polite.  In fact, they pre-programmed a late checkout for me, having seen that I would be getting in late the night before.  Many four- and five-star class hotels don't have that type of service.Very impressive value.More</t>
+  </si>
+  <si>
+    <t>MadFrankie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d235443-r5947037-Best_Western_Plus_John_Jay_Inn_Suites-Palmdale_California.html</t>
@@ -2892,43 +3252,47 @@
       <c r="A2" t="n">
         <v>41449</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155759</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2952,41 +3316,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41449</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>35477</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -3005,50 +3373,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41449</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155760</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3072,50 +3444,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41449</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155761</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3127,56 +3503,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41449</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155762</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3200,50 +3580,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41449</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>29158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3267,50 +3651,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41449</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3334,50 +3722,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41449</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>91052</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3395,50 +3787,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41449</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>49345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3462,50 +3858,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41449</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155763</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3529,50 +3929,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41449</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2949</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3584,56 +3988,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41449</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155764</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>110</v>
-      </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3657,50 +4065,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41449</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155765</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3724,50 +4136,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41449</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>25355</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3787,50 +4203,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41449</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155766</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3854,50 +4274,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41449</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155767</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3921,50 +4345,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41449</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>33624</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3988,50 +4416,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41449</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155768</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -4055,50 +4487,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41449</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155769</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4122,50 +4558,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41449</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155770</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -4189,50 +4629,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41449</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155771</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4244,56 +4688,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="X22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41449</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125303</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4315,56 +4763,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41449</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155772</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>187</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>167</v>
-      </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4378,50 +4830,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41449</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155773</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4443,56 +4899,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="X25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41449</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155774</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4514,56 +4974,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="X26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41449</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>20220</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4585,56 +5049,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="X27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41449</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>12515</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4656,56 +5124,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="X28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41449</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>48365</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4729,50 +5201,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41449</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155775</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4792,50 +5268,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41449</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155776</v>
+      </c>
+      <c r="C31" t="s">
+        <v>261</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4855,50 +5335,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41449</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155777</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4922,50 +5406,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41449</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>4155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>275</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4989,50 +5477,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41449</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155778</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5052,50 +5544,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41449</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155779</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5119,41 +5615,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41449</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155780</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -5172,50 +5672,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41449</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>14679</v>
+      </c>
+      <c r="C37" t="s">
+        <v>299</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J37" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5235,50 +5739,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41449</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155781</v>
+      </c>
+      <c r="C38" t="s">
+        <v>307</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J38" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="K38" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5298,50 +5806,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41449</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155782</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5359,50 +5871,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41449</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>68734</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5426,50 +5942,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41449</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>83587</v>
+      </c>
+      <c r="C41" t="s">
+        <v>329</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="J41" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="K41" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -5491,56 +6011,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="X41" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="Y41" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41449</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5564,50 +6088,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41449</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155783</v>
+      </c>
+      <c r="C43" t="s">
+        <v>344</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5631,50 +6159,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41449</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155784</v>
+      </c>
+      <c r="C44" t="s">
+        <v>351</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="O44" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5698,50 +6230,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41449</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>69641</v>
+      </c>
+      <c r="C45" t="s">
+        <v>358</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="J45" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="K45" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="O45" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5759,50 +6295,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41449</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>31740</v>
+      </c>
+      <c r="C46" t="s">
+        <v>365</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="K46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5826,41 +6366,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41449</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155785</v>
+      </c>
+      <c r="C47" t="s">
+        <v>371</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -5879,50 +6423,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41449</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155786</v>
+      </c>
+      <c r="C48" t="s">
+        <v>377</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5946,50 +6494,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41449</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155787</v>
+      </c>
+      <c r="C49" t="s">
+        <v>383</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="J49" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="O49" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6003,50 +6555,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41449</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125315</v>
+      </c>
+      <c r="C50" t="s">
+        <v>391</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="J50" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="K50" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="O50" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6070,50 +6626,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41449</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155788</v>
+      </c>
+      <c r="C51" t="s">
+        <v>397</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="J51" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -6137,50 +6697,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41449</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155789</v>
+      </c>
+      <c r="C52" t="s">
+        <v>404</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="J52" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="K52" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="O52" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6204,50 +6768,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41449</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155790</v>
+      </c>
+      <c r="C53" t="s">
+        <v>410</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="J53" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6265,50 +6833,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41449</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155791</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L54" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6332,50 +6904,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41449</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C55" t="s">
+        <v>422</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="J55" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6393,41 +6969,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41449</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155792</v>
+      </c>
+      <c r="C56" t="s">
+        <v>429</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="J56" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -6446,50 +7026,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41449</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155793</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="J57" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="K57" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6507,50 +7091,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41449</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125315</v>
+      </c>
+      <c r="C58" t="s">
+        <v>391</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="J58" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="K58" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6574,50 +7162,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41449</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155794</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="O59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6641,50 +7233,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41449</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>15352</v>
+      </c>
+      <c r="C60" t="s">
+        <v>454</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="J60" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="K60" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6698,50 +7294,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41449</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155795</v>
+      </c>
+      <c r="C61" t="s">
+        <v>460</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="J61" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="O61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6759,50 +7359,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41449</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155796</v>
+      </c>
+      <c r="C62" t="s">
+        <v>466</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="J62" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="K62" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6816,50 +7420,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41449</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155797</v>
+      </c>
+      <c r="C63" t="s">
+        <v>473</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="J63" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="K63" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6883,50 +7491,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41449</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155798</v>
+      </c>
+      <c r="C64" t="s">
+        <v>479</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="J64" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="K64" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="L64" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6950,50 +7562,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41449</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>22651</v>
+      </c>
+      <c r="C65" t="s">
+        <v>485</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="J65" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="K65" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="L65" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7011,50 +7627,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41449</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>22296</v>
+      </c>
+      <c r="C66" t="s">
+        <v>492</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="J66" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="K66" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7078,50 +7698,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41449</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>43783</v>
+      </c>
+      <c r="C67" t="s">
+        <v>498</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="J67" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="K67" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="L67" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7145,50 +7769,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41449</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>19460</v>
+      </c>
+      <c r="C68" t="s">
+        <v>504</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="J68" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="K68" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="L68" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="O68" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -7208,50 +7836,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41449</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C69" t="s">
+        <v>511</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="J69" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="K69" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L69" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="O69" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7269,50 +7901,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41449</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>21829</v>
+      </c>
+      <c r="C70" t="s">
+        <v>516</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="J70" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="K70" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="L70" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7332,50 +7968,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41449</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>9633</v>
+      </c>
+      <c r="C71" t="s">
+        <v>522</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="J71" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="K71" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="L71" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7399,50 +8039,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41449</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>3888</v>
+      </c>
+      <c r="C72" t="s">
+        <v>529</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="J72" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="K72" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="L72" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="O72" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7466,50 +8110,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41449</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155799</v>
+      </c>
+      <c r="C73" t="s">
+        <v>535</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="J73" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="K73" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="L73" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="O73" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7529,50 +8177,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41449</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>18840</v>
+      </c>
+      <c r="C74" t="s">
+        <v>540</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="J74" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="K74" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="L74" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="O74" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7590,50 +8242,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41449</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>155800</v>
+      </c>
+      <c r="C75" t="s">
+        <v>547</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="J75" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="K75" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="L75" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="O75" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -7657,50 +8313,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41449</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155801</v>
+      </c>
+      <c r="C76" t="s">
+        <v>555</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="J76" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="K76" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="L76" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="O76" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7718,50 +8378,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>41449</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155802</v>
+      </c>
+      <c r="C77" t="s">
+        <v>562</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="J77" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="K77" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="L77" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="O77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7781,50 +8445,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>495</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>41449</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155803</v>
+      </c>
+      <c r="C78" t="s">
+        <v>570</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>497</v>
+        <v>572</v>
       </c>
       <c r="J78" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="K78" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="L78" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="n">
@@ -7844,50 +8512,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>41449</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C79" t="s">
+        <v>575</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="J79" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="K79" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="L79" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="O79" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7911,50 +8583,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>41449</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>4115</v>
+      </c>
+      <c r="C80" t="s">
+        <v>581</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="J80" t="s">
-        <v>507</v>
+        <v>584</v>
       </c>
       <c r="K80" t="s">
-        <v>508</v>
+        <v>585</v>
       </c>
       <c r="L80" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7978,50 +8654,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>41449</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155804</v>
+      </c>
+      <c r="C81" t="s">
+        <v>587</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="J81" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="K81" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="L81" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="O81" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8039,50 +8719,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>41449</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>16862</v>
+      </c>
+      <c r="C82" t="s">
+        <v>594</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
       <c r="J82" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="K82" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="L82" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="O82" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8106,41 +8790,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>41449</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>73847</v>
+      </c>
+      <c r="C83" t="s">
+        <v>601</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="J83" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="K83" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="L83" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
@@ -8167,56 +8855,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="X83" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
       <c r="Y83" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>41449</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155805</v>
+      </c>
+      <c r="C84" t="s">
+        <v>610</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="J84" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="K84" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="L84" t="s">
-        <v>534</v>
+        <v>615</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
       <c r="O84" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8236,50 +8928,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>41449</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>155806</v>
+      </c>
+      <c r="C85" t="s">
+        <v>618</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="J85" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="K85" t="s">
-        <v>540</v>
+        <v>622</v>
       </c>
       <c r="L85" t="s">
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="n">
@@ -8299,50 +8995,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>541</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>41449</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>155807</v>
+      </c>
+      <c r="C86" t="s">
+        <v>624</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>543</v>
+        <v>626</v>
       </c>
       <c r="J86" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
       <c r="K86" t="s">
-        <v>545</v>
+        <v>628</v>
       </c>
       <c r="L86" t="s">
-        <v>546</v>
+        <v>629</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>547</v>
+        <v>630</v>
       </c>
       <c r="O86" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8362,50 +9062,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>546</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>41449</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155808</v>
+      </c>
+      <c r="C87" t="s">
+        <v>631</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="J87" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="K87" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="L87" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="O87" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8429,50 +9133,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>41449</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155809</v>
+      </c>
+      <c r="C88" t="s">
+        <v>638</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>554</v>
+        <v>639</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>555</v>
+        <v>640</v>
       </c>
       <c r="J88" t="s">
-        <v>556</v>
+        <v>641</v>
       </c>
       <c r="K88" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="L88" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -8494,56 +9202,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>559</v>
+        <v>644</v>
       </c>
       <c r="X88" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="Y88" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>41449</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>117299</v>
+      </c>
+      <c r="C89" t="s">
+        <v>647</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>562</v>
+        <v>648</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>563</v>
+        <v>649</v>
       </c>
       <c r="J89" t="s">
-        <v>564</v>
+        <v>650</v>
       </c>
       <c r="K89" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="L89" t="s">
-        <v>566</v>
+        <v>652</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="O89" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8567,50 +9279,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>566</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>41449</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>9403</v>
+      </c>
+      <c r="C90" t="s">
+        <v>654</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>569</v>
+        <v>656</v>
       </c>
       <c r="J90" t="s">
-        <v>570</v>
+        <v>657</v>
       </c>
       <c r="K90" t="s">
-        <v>571</v>
+        <v>658</v>
       </c>
       <c r="L90" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8634,50 +9350,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>41449</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>33920</v>
+      </c>
+      <c r="C91" t="s">
+        <v>660</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>573</v>
+        <v>661</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="J91" t="s">
-        <v>575</v>
+        <v>663</v>
       </c>
       <c r="K91" t="s">
-        <v>576</v>
+        <v>664</v>
       </c>
       <c r="L91" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="O91" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8701,50 +9421,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>41449</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>4917</v>
+      </c>
+      <c r="C92" t="s">
+        <v>667</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>579</v>
+        <v>668</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>580</v>
+        <v>669</v>
       </c>
       <c r="J92" t="s">
-        <v>581</v>
+        <v>670</v>
       </c>
       <c r="K92" t="s">
-        <v>582</v>
+        <v>671</v>
       </c>
       <c r="L92" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8768,50 +9492,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>41449</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>155810</v>
+      </c>
+      <c r="C93" t="s">
+        <v>673</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="J93" t="s">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="K93" t="s">
-        <v>587</v>
+        <v>677</v>
       </c>
       <c r="L93" t="s">
-        <v>588</v>
+        <v>678</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="O93" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8835,50 +9563,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>588</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>41449</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>3888</v>
+      </c>
+      <c r="C94" t="s">
+        <v>529</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="J94" t="s">
-        <v>591</v>
+        <v>681</v>
       </c>
       <c r="K94" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="L94" t="s">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>594</v>
+        <v>684</v>
       </c>
       <c r="O94" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8902,50 +9634,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>593</v>
+        <v>683</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>41449</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>155811</v>
+      </c>
+      <c r="C95" t="s">
+        <v>685</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>595</v>
+        <v>686</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>596</v>
+        <v>687</v>
       </c>
       <c r="J95" t="s">
-        <v>597</v>
+        <v>688</v>
       </c>
       <c r="K95" t="s">
-        <v>598</v>
+        <v>689</v>
       </c>
       <c r="L95" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="O95" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -8967,56 +9703,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>601</v>
+        <v>692</v>
       </c>
       <c r="X95" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
       <c r="Y95" t="s">
-        <v>603</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>41449</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C96" t="s">
+        <v>575</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>604</v>
+        <v>695</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="J96" t="s">
-        <v>606</v>
+        <v>697</v>
       </c>
       <c r="K96" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="L96" t="s">
-        <v>607</v>
+        <v>698</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>608</v>
+        <v>699</v>
       </c>
       <c r="O96" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9040,50 +9780,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>607</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>41449</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>700</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>610</v>
+        <v>702</v>
       </c>
       <c r="J97" t="s">
-        <v>611</v>
+        <v>703</v>
       </c>
       <c r="K97" t="s">
-        <v>612</v>
+        <v>704</v>
       </c>
       <c r="L97" t="s">
-        <v>613</v>
+        <v>705</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>608</v>
+        <v>699</v>
       </c>
       <c r="O97" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9107,50 +9851,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>613</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>41449</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>24222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>706</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>614</v>
+        <v>707</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>615</v>
+        <v>708</v>
       </c>
       <c r="J98" t="s">
-        <v>616</v>
+        <v>709</v>
       </c>
       <c r="K98" t="s">
-        <v>617</v>
+        <v>710</v>
       </c>
       <c r="L98" t="s">
-        <v>618</v>
+        <v>711</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="O98" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9174,50 +9922,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>618</v>
+        <v>711</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>41449</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>25154</v>
+      </c>
+      <c r="C99" t="s">
+        <v>713</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
       <c r="J99" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="K99" t="s">
-        <v>623</v>
+        <v>717</v>
       </c>
       <c r="L99" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="O99" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -9241,50 +9993,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>41449</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>155812</v>
+      </c>
+      <c r="C100" t="s">
+        <v>719</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>625</v>
+        <v>720</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
       <c r="J100" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
       <c r="K100" t="s">
-        <v>628</v>
+        <v>723</v>
       </c>
       <c r="L100" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9308,50 +10064,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>41449</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>155813</v>
+      </c>
+      <c r="C101" t="s">
+        <v>725</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>630</v>
+        <v>726</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>631</v>
+        <v>727</v>
       </c>
       <c r="J101" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
       <c r="K101" t="s">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="L101" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>635</v>
+        <v>731</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9375,50 +10135,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>636</v>
+        <v>732</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>41449</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C102" t="s">
+        <v>733</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>638</v>
+        <v>735</v>
       </c>
       <c r="J102" t="s">
-        <v>639</v>
+        <v>736</v>
       </c>
       <c r="K102" t="s">
-        <v>640</v>
+        <v>737</v>
       </c>
       <c r="L102" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>635</v>
+        <v>731</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9442,50 +10206,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>41449</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>6227</v>
+      </c>
+      <c r="C103" t="s">
+        <v>739</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="J103" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="K103" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
       <c r="L103" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>647</v>
+        <v>745</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9509,50 +10277,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>41449</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>155814</v>
+      </c>
+      <c r="C104" t="s">
+        <v>746</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>648</v>
+        <v>747</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
       <c r="J104" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="K104" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="L104" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="O104" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9576,50 +10348,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>41449</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>51222</v>
+      </c>
+      <c r="C105" t="s">
+        <v>754</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="J105" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
       <c r="K105" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="L105" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9643,50 +10419,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>41449</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C106" t="s">
+        <v>760</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="J106" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="K106" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="L106" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9710,50 +10490,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>41449</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>155815</v>
+      </c>
+      <c r="C107" t="s">
+        <v>767</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>666</v>
+        <v>768</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>667</v>
+        <v>769</v>
       </c>
       <c r="J107" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="K107" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="L107" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="O107" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9777,50 +10561,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>41449</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>155816</v>
+      </c>
+      <c r="C108" t="s">
+        <v>773</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>671</v>
+        <v>774</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>672</v>
+        <v>775</v>
       </c>
       <c r="J108" t="s">
-        <v>673</v>
+        <v>776</v>
       </c>
       <c r="K108" t="s">
-        <v>674</v>
+        <v>777</v>
       </c>
       <c r="L108" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
       <c r="O108" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9844,50 +10632,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>41449</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>155817</v>
+      </c>
+      <c r="C109" t="s">
+        <v>780</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>678</v>
+        <v>782</v>
       </c>
       <c r="J109" t="s">
-        <v>679</v>
+        <v>783</v>
       </c>
       <c r="K109" t="s">
-        <v>680</v>
+        <v>784</v>
       </c>
       <c r="L109" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="O109" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -9911,50 +10703,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>41449</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>27855</v>
+      </c>
+      <c r="C110" t="s">
+        <v>788</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>684</v>
+        <v>789</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>685</v>
+        <v>790</v>
       </c>
       <c r="J110" t="s">
-        <v>686</v>
+        <v>791</v>
       </c>
       <c r="K110" t="s">
-        <v>687</v>
+        <v>792</v>
       </c>
       <c r="L110" t="s">
-        <v>688</v>
+        <v>793</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>689</v>
+        <v>794</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -9978,50 +10774,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>688</v>
+        <v>793</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>41449</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>155818</v>
+      </c>
+      <c r="C111" t="s">
+        <v>795</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>690</v>
+        <v>796</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>691</v>
+        <v>797</v>
       </c>
       <c r="J111" t="s">
-        <v>692</v>
+        <v>798</v>
       </c>
       <c r="K111" t="s">
-        <v>693</v>
+        <v>799</v>
       </c>
       <c r="L111" t="s">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>695</v>
+        <v>801</v>
       </c>
       <c r="O111" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10045,50 +10845,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>694</v>
+        <v>800</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>41449</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>83654</v>
+      </c>
+      <c r="C112" t="s">
+        <v>802</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>696</v>
+        <v>803</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>697</v>
+        <v>804</v>
       </c>
       <c r="J112" t="s">
-        <v>698</v>
+        <v>805</v>
       </c>
       <c r="K112" t="s">
-        <v>699</v>
+        <v>806</v>
       </c>
       <c r="L112" t="s">
-        <v>700</v>
+        <v>807</v>
       </c>
       <c r="M112" t="n">
         <v>2</v>
       </c>
       <c r="N112" t="s">
-        <v>701</v>
+        <v>808</v>
       </c>
       <c r="O112" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -10112,50 +10916,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>700</v>
+        <v>807</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>41449</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>155819</v>
+      </c>
+      <c r="C113" t="s">
+        <v>809</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>702</v>
+        <v>810</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>703</v>
+        <v>811</v>
       </c>
       <c r="J113" t="s">
-        <v>704</v>
+        <v>812</v>
       </c>
       <c r="K113" t="s">
-        <v>705</v>
+        <v>813</v>
       </c>
       <c r="L113" t="s">
-        <v>706</v>
+        <v>814</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>707</v>
+        <v>815</v>
       </c>
       <c r="O113" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P113" t="n">
         <v>4</v>
@@ -10177,56 +10985,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>708</v>
+        <v>816</v>
       </c>
       <c r="X113" t="s">
-        <v>709</v>
+        <v>817</v>
       </c>
       <c r="Y113" t="s">
-        <v>710</v>
+        <v>818</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>41449</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>155820</v>
+      </c>
+      <c r="C114" t="s">
+        <v>819</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>711</v>
+        <v>820</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>712</v>
+        <v>821</v>
       </c>
       <c r="J114" t="s">
-        <v>713</v>
+        <v>822</v>
       </c>
       <c r="K114" t="s">
-        <v>714</v>
+        <v>823</v>
       </c>
       <c r="L114" t="s">
-        <v>715</v>
+        <v>824</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>716</v>
+        <v>825</v>
       </c>
       <c r="O114" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P114" t="n">
         <v>4</v>
@@ -10250,50 +11062,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>715</v>
+        <v>824</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>41449</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>5140</v>
+      </c>
+      <c r="C115" t="s">
+        <v>826</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>717</v>
+        <v>827</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>718</v>
+        <v>828</v>
       </c>
       <c r="J115" t="s">
-        <v>719</v>
+        <v>829</v>
       </c>
       <c r="K115" t="s">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="L115" t="s">
-        <v>721</v>
+        <v>831</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>716</v>
+        <v>825</v>
       </c>
       <c r="O115" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P115" t="s"/>
       <c r="Q115" t="s"/>
@@ -10307,50 +11123,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>722</v>
+        <v>832</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>41449</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>155821</v>
+      </c>
+      <c r="C116" t="s">
+        <v>833</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>723</v>
+        <v>834</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="J116" t="s">
-        <v>725</v>
+        <v>836</v>
       </c>
       <c r="K116" t="s">
-        <v>726</v>
+        <v>837</v>
       </c>
       <c r="L116" t="s">
-        <v>727</v>
+        <v>838</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>728</v>
+        <v>839</v>
       </c>
       <c r="O116" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10374,50 +11194,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>727</v>
+        <v>838</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>41449</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>155822</v>
+      </c>
+      <c r="C117" t="s">
+        <v>840</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>729</v>
+        <v>841</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>730</v>
+        <v>842</v>
       </c>
       <c r="J117" t="s">
-        <v>731</v>
+        <v>843</v>
       </c>
       <c r="K117" t="s">
-        <v>732</v>
+        <v>844</v>
       </c>
       <c r="L117" t="s">
-        <v>733</v>
+        <v>845</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>728</v>
+        <v>839</v>
       </c>
       <c r="O117" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -10441,50 +11265,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>733</v>
+        <v>845</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>41449</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>155823</v>
+      </c>
+      <c r="C118" t="s">
+        <v>846</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>734</v>
+        <v>847</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>735</v>
+        <v>848</v>
       </c>
       <c r="J118" t="s">
-        <v>731</v>
+        <v>843</v>
       </c>
       <c r="K118" t="s">
-        <v>736</v>
+        <v>849</v>
       </c>
       <c r="L118" t="s">
-        <v>737</v>
+        <v>850</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
       </c>
       <c r="N118" t="s">
-        <v>728</v>
+        <v>839</v>
       </c>
       <c r="O118" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P118" t="n">
         <v>4</v>
@@ -10508,50 +11336,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>738</v>
+        <v>851</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>41449</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>119050</v>
+      </c>
+      <c r="C119" t="s">
+        <v>852</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>739</v>
+        <v>853</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
       <c r="J119" t="s">
-        <v>741</v>
+        <v>855</v>
       </c>
       <c r="K119" t="s">
-        <v>742</v>
+        <v>856</v>
       </c>
       <c r="L119" t="s">
-        <v>743</v>
+        <v>857</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>744</v>
+        <v>858</v>
       </c>
       <c r="O119" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P119" t="n">
         <v>5</v>
@@ -10571,50 +11403,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>745</v>
+        <v>859</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>41449</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>62270</v>
+      </c>
+      <c r="C120" t="s">
+        <v>860</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>746</v>
+        <v>861</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>747</v>
+        <v>862</v>
       </c>
       <c r="J120" t="s">
-        <v>748</v>
+        <v>863</v>
       </c>
       <c r="K120" t="s">
-        <v>749</v>
+        <v>864</v>
       </c>
       <c r="L120" t="s">
-        <v>750</v>
+        <v>865</v>
       </c>
       <c r="M120" t="n">
         <v>4</v>
       </c>
       <c r="N120" t="s">
-        <v>751</v>
+        <v>866</v>
       </c>
       <c r="O120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -10634,50 +11470,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>752</v>
+        <v>867</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>41449</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>155824</v>
+      </c>
+      <c r="C121" t="s">
+        <v>868</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>753</v>
+        <v>869</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>754</v>
+        <v>870</v>
       </c>
       <c r="J121" t="s">
-        <v>755</v>
+        <v>871</v>
       </c>
       <c r="K121" t="s">
-        <v>756</v>
+        <v>872</v>
       </c>
       <c r="L121" t="s">
-        <v>757</v>
+        <v>873</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
       </c>
       <c r="N121" t="s">
-        <v>751</v>
+        <v>866</v>
       </c>
       <c r="O121" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P121" t="n">
         <v>4</v>
@@ -10697,50 +11537,54 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>758</v>
+        <v>874</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>41449</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>155825</v>
+      </c>
+      <c r="C122" t="s">
+        <v>875</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>759</v>
+        <v>876</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>760</v>
+        <v>877</v>
       </c>
       <c r="J122" t="s">
-        <v>761</v>
+        <v>878</v>
       </c>
       <c r="K122" t="s">
-        <v>762</v>
+        <v>879</v>
       </c>
       <c r="L122" t="s">
-        <v>763</v>
+        <v>880</v>
       </c>
       <c r="M122" t="n">
         <v>4</v>
       </c>
       <c r="N122" t="s">
-        <v>764</v>
+        <v>881</v>
       </c>
       <c r="O122" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P122" t="n">
         <v>4</v>
@@ -10764,50 +11608,54 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>763</v>
+        <v>880</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>41449</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>155826</v>
+      </c>
+      <c r="C123" t="s">
+        <v>882</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>765</v>
+        <v>883</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>766</v>
+        <v>884</v>
       </c>
       <c r="J123" t="s">
-        <v>767</v>
+        <v>885</v>
       </c>
       <c r="K123" t="s">
-        <v>768</v>
+        <v>886</v>
       </c>
       <c r="L123" t="s">
-        <v>769</v>
+        <v>887</v>
       </c>
       <c r="M123" t="n">
         <v>5</v>
       </c>
       <c r="N123" t="s">
-        <v>770</v>
+        <v>888</v>
       </c>
       <c r="O123" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P123" t="n">
         <v>5</v>
@@ -10831,50 +11679,54 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>769</v>
+        <v>887</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>41449</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>155827</v>
+      </c>
+      <c r="C124" t="s">
+        <v>889</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>771</v>
+        <v>890</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>772</v>
+        <v>891</v>
       </c>
       <c r="J124" t="s">
-        <v>773</v>
+        <v>892</v>
       </c>
       <c r="K124" t="s">
-        <v>774</v>
+        <v>893</v>
       </c>
       <c r="L124" t="s">
-        <v>775</v>
+        <v>894</v>
       </c>
       <c r="M124" t="n">
         <v>5</v>
       </c>
       <c r="N124" t="s">
-        <v>776</v>
+        <v>895</v>
       </c>
       <c r="O124" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>
@@ -10898,50 +11750,54 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>777</v>
+        <v>896</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>41449</v>
       </c>
-      <c r="B125" t="s"/>
-      <c r="C125" t="s"/>
+      <c r="B125" t="n">
+        <v>155828</v>
+      </c>
+      <c r="C125" t="s">
+        <v>897</v>
+      </c>
       <c r="D125" t="n">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>778</v>
+        <v>898</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I125" t="s">
-        <v>779</v>
+        <v>899</v>
       </c>
       <c r="J125" t="s">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="K125" t="s">
-        <v>781</v>
+        <v>901</v>
       </c>
       <c r="L125" t="s">
-        <v>782</v>
+        <v>902</v>
       </c>
       <c r="M125" t="n">
         <v>3</v>
       </c>
       <c r="N125" t="s">
-        <v>783</v>
+        <v>903</v>
       </c>
       <c r="O125" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P125" t="n">
         <v>3</v>
@@ -10965,7 +11821,7 @@
       <c r="W125" t="s"/>
       <c r="X125" t="s"/>
       <c r="Y125" t="s">
-        <v>782</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
